--- a/data/univ100_deptId.xlsx
+++ b/data/univ100_deptId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdal\OneDrive\바탕 화면\ChatbotProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB17A8A5-A343-49B4-B617-D89A4F54A41E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C9E710-8693-4C2B-A06B-B71E5588EE11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" xr2:uid="{B4942479-4833-4427-8B81-24B2ADFE14FC}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>경영학전공</t>
   </si>
   <si>
-    <t>경제・금융보험・재무부동산학부</t>
-  </si>
-  <si>
     <t>경제학전공</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>로봇·자동화공학전공</t>
   </si>
   <si>
-    <t>무역・유통학부</t>
-  </si>
-  <si>
     <t>무역학전공</t>
   </si>
   <si>
@@ -158,15 +152,9 @@
     <t>방사선학과</t>
   </si>
   <si>
-    <t>법・경찰행정학부</t>
-  </si>
-  <si>
     <t>법학전공</t>
   </si>
   <si>
-    <t>보육・가정상담학과</t>
-  </si>
-  <si>
     <t>부동산금융·자산경영학과</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>산업ICT기술공학전공</t>
   </si>
   <si>
-    <t>산업경영・빅데이터공학전공</t>
-  </si>
-  <si>
     <t>산업융합시스템공학부</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>의생명공학전공</t>
   </si>
   <si>
-    <t>인간・시스템디자인공학전공</t>
-  </si>
-  <si>
     <t>인공지능학과</t>
   </si>
   <si>
@@ -315,9 +297,6 @@
   </si>
   <si>
     <t>호텔관광경영학부</t>
-  </si>
-  <si>
-    <t>호텔ㆍ컨벤션경영학전공</t>
   </si>
   <si>
     <t>화학공학전공</t>
@@ -338,6 +317,27 @@
   <si>
     <t>학과번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제_금융보험_재무부동산학부</t>
+  </si>
+  <si>
+    <t>무역_유통학부</t>
+  </si>
+  <si>
+    <t>법_경찰행정학부</t>
+  </si>
+  <si>
+    <t>보육_가정상담학과</t>
+  </si>
+  <si>
+    <t>산업경영_빅데이터공학전공</t>
+  </si>
+  <si>
+    <t>인간_시스템디자인공학전공</t>
+  </si>
+  <si>
+    <t>호텔_컨벤션경영학전공</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,10 +747,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>7889</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>7890</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>7918</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>7856</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>7919</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>7920</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>7884</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>18691</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>7891</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>7857</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>7892</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>7858</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>7859</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>7873</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>7860</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>7903</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>18686</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>7846</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>7904</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>7905</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>7861</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>7893</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>7894</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>7921</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>7911</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>7922</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>18688</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>7874</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>7875</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>7912</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>7923</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>7924</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B43">
         <v>7913</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>7895</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>7925</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>7862</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>18689</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>7863</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>7926</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>18687</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>18690</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>7876</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>7914</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>7927</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>7865</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B56">
         <v>18692</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>7847</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B58">
         <v>21000</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B59">
         <v>7929</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>7897</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61">
         <v>7906</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B62">
         <v>7848</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B63">
         <v>7877</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>7915</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B65">
         <v>7878</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>7866</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>20999</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>7930</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B69">
         <v>7916</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B70">
         <v>7867</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71">
         <v>7898</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>7849</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B73">
         <v>7868</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <v>7850</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>7851</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B76">
         <v>7899</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B77">
         <v>7852</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <v>7869</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B79">
         <v>7879</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B80">
         <v>7931</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B81">
         <v>7853</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B82">
         <v>7907</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B83">
         <v>7917</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>7854</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>7855</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>7908</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>7880</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>7909</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>7932</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>7935</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>7936</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>7934</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>7901</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>7900</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B95">
         <v>7881</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B96">
         <v>7882</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B97">
         <v>7883</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B98">
         <v>7902</v>
